--- a/investigations/OldRFPwrAmps/ClassEFinalTransistors.xlsx
+++ b/investigations/OldRFPwrAmps/ClassEFinalTransistors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jconrad/GitHub/yasdr/investigations/ClassEAmps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jconrad/GitHub/yasdr/investigations/OldRFPwrAmps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089BBA89-36F5-E74A-A355-ADEC542F5421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CAA683-555F-A04B-A914-DA0EBE9A9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1100" windowWidth="23740" windowHeight="10480" xr2:uid="{DDA6A1BA-335A-D741-97D6-B52424E6B1C2}"/>
+    <workbookView xWindow="920" yWindow="1100" windowWidth="26860" windowHeight="10740" xr2:uid="{DDA6A1BA-335A-D741-97D6-B52424E6B1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{78A96D17-4F8A-EE4F-AE0B-2178AA4E8A5C}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{09BC96E2-069B-954B-BF43-680433D7AF87}">
       <text>
         <r>
           <rPr>
@@ -168,11 +168,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Vgs=6V, Id=0.9A</t>
+          <t>Vgs=4.5, Id=0.250</t>
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{AAD1FDD2-94A5-B146-B74A-720336AE79D6}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{B51A472D-AECE-794F-AC9C-520A56C7A1F0}">
       <text>
         <r>
           <rPr>
@@ -201,11 +201,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Vgs=10V, Id=2A</t>
+          <t>Vds=10, Id=1.2</t>
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{EF17550B-D6EA-5C45-A556-46101BBC4FEC}">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{78A96D17-4F8A-EE4F-AE0B-2178AA4E8A5C}">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,73 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Vgs=10V</t>
+          <t>Vgs=10, Id=1.2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{AAD1FDD2-94A5-B146-B74A-720336AE79D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vgs=10V, Id=2A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{EF17550B-D6EA-5C45-A556-46101BBC4FEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vgs=4.8V</t>
         </r>
       </text>
     </comment>
@@ -243,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Maximum Ratings</t>
   </si>
@@ -356,10 +422,28 @@
     <t>FDT86246</t>
   </si>
   <si>
-    <t>(tru)SDX, disco</t>
-  </si>
-  <si>
     <t>Id=8A pulsed</t>
+  </si>
+  <si>
+    <t>Thermal</t>
+  </si>
+  <si>
+    <t>Rjc</t>
+  </si>
+  <si>
+    <t>Rja</t>
+  </si>
+  <si>
+    <t>MMBF170</t>
+  </si>
+  <si>
+    <t>TN0110</t>
+  </si>
+  <si>
+    <t>BS170 alternate</t>
+  </si>
+  <si>
+    <t>(tru)SDX, discocontinued</t>
   </si>
 </sst>
 </file>
@@ -429,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -546,11 +630,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,20 +707,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,95 +1048,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C2775E-10D5-7840-BF8F-D23800FEF2A8}">
-  <dimension ref="A2:P11"/>
+  <dimension ref="A2:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="16" max="16" width="32.6640625" customWidth="1"/>
+    <col min="18" max="18" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="21" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="23"/>
+      <c r="P3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1075,16 +1192,20 @@
       <c r="O4" s="5">
         <v>10</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5">
+        <v>150</v>
+      </c>
+      <c r="R4" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C5" s="14">
         <v>60</v>
@@ -1093,10 +1214,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="15">
-        <v>0.115</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="16">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="13">
         <v>2.1</v>
@@ -1104,170 +1225,184 @@
       <c r="H5" s="15">
         <v>1.2</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="16">
         <v>0.8</v>
       </c>
       <c r="J5" s="17">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5" s="18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="18">
-        <v>4</v>
-      </c>
-      <c r="M5" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1</v>
+      </c>
       <c r="N5" s="13">
         <v>10</v>
       </c>
       <c r="O5" s="16">
         <v>10</v>
       </c>
-      <c r="P5" s="20"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
+        <v>417</v>
+      </c>
+      <c r="R5" s="20"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J6" s="10">
         <v>50</v>
       </c>
       <c r="K6" s="6">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L6" s="6">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="8" t="s">
-        <v>22</v>
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5">
+        <v>132</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="13">
-        <v>150</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="14">
+        <v>60</v>
       </c>
       <c r="D7" s="15">
         <v>20</v>
       </c>
       <c r="E7" s="15">
+        <v>0.115</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="H7" s="15">
         <v>1.2</v>
       </c>
-      <c r="F7" s="16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G7" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>31</v>
+      <c r="I7" s="15">
+        <v>0.8</v>
       </c>
       <c r="J7" s="17">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K7" s="18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L7" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="13">
-        <v>1.7</v>
+        <v>10</v>
       </c>
       <c r="O7" s="16">
-        <v>2.6</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>37</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="20"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="11">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="9">
+        <v>30</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.35599999999999998</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="10">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K8" s="6">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L8" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="O8" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="P8" s="8"/>
+        <v>1.7</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" s="13">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D9" s="15">
         <v>20</v>
@@ -1276,146 +1411,263 @@
         <v>1.2</v>
       </c>
       <c r="F9" s="16">
-        <v>0.96</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G9" s="13">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H9" s="15">
-        <v>0.41</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0.95</v>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="J9" s="17">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="18">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L9" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M9" s="19"/>
       <c r="N9" s="13">
         <v>1.7</v>
       </c>
       <c r="O9" s="16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>35</v>
+        <v>2.6</v>
+      </c>
+      <c r="P9" s="16">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>55</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4</v>
+      </c>
+      <c r="J10" s="10">
+        <v>64</v>
+      </c>
+      <c r="K10" s="6">
+        <v>13</v>
+      </c>
+      <c r="L10" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="13">
         <v>100</v>
-      </c>
-      <c r="D10" s="4">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="F10" s="5">
-        <v>43</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="I10" s="4">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
-        <v>180</v>
-      </c>
-      <c r="K10" s="4">
-        <v>81</v>
-      </c>
-      <c r="L10" s="4">
-        <v>15</v>
-      </c>
-      <c r="M10" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N10" s="3">
-        <v>16</v>
-      </c>
-      <c r="O10" s="5">
-        <v>9.4</v>
-      </c>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="13">
-        <v>150</v>
       </c>
       <c r="D11" s="15">
         <v>20</v>
       </c>
       <c r="E11" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="J11" s="17">
+        <v>53</v>
+      </c>
+      <c r="K11" s="18">
+        <v>17</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="N11" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="O11" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P11" s="16">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>130</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <v>180</v>
+      </c>
+      <c r="K12" s="4">
+        <v>81</v>
+      </c>
+      <c r="L12" s="4">
+        <v>15</v>
+      </c>
+      <c r="M12" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N12" s="3">
+        <v>16</v>
+      </c>
+      <c r="O12" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="13">
+        <v>150</v>
+      </c>
+      <c r="D13" s="15">
+        <v>20</v>
+      </c>
+      <c r="E13" s="15">
         <v>2</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F13" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G13" s="13">
         <v>3.1</v>
       </c>
-      <c r="H11" s="15">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="I11" s="15">
+      <c r="H13" s="15">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="I13" s="15">
         <v>2</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J13" s="13">
         <v>161</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K13" s="15">
         <v>21</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L13" s="15">
         <v>1.6</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M13" s="16">
         <v>2.9</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N13" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O13" s="16">
         <v>1.2</v>
       </c>
-      <c r="P11" s="20" t="s">
-        <v>38</v>
+      <c r="P13" s="16">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>55</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="J2:M2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
